--- a/格斗游戏想法-11月26日.xlsx
+++ b/格斗游戏想法-11月26日.xlsx
@@ -576,7 +576,7 @@
     <t>蓄力</t>
   </si>
   <si>
-    <t>每多一连伤害加0.5</t>
+    <t>每多一连伤害加0.3</t>
   </si>
   <si>
     <t>大风车</t>
@@ -707,10 +707,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -718,6 +718,88 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -737,52 +819,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,6 +849,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -811,59 +859,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -871,6 +871,90 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -880,31 +964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,7 +976,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,37 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,91 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,6 +1065,44 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1083,25 +1121,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1122,46 +1151,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,10 +1173,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1185,145 +1185,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2571,7 +2568,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2613,7 +2610,7 @@
       <c r="C2" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2625,7 +2622,7 @@
       <c r="C3" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
@@ -2637,7 +2634,7 @@
       <c r="C4" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2649,7 +2646,7 @@
       <c r="C5" t="s">
         <v>157</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
@@ -2658,7 +2655,7 @@
       <c r="C6" t="s">
         <v>158</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2667,7 +2664,7 @@
       <c r="C7" t="s">
         <v>159</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
@@ -2676,7 +2673,7 @@
       <c r="C8" t="s">
         <v>160</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2685,7 +2682,7 @@
       <c r="C9" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -2697,7 +2694,7 @@
       <c r="C10" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2709,7 +2706,7 @@
       <c r="C11" t="s">
         <v>165</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
@@ -2721,7 +2718,7 @@
       <c r="C12" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2733,9 +2730,9 @@
       <c r="C13" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
@@ -2745,8 +2742,11 @@
       <c r="C14" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="G14" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>173</v>
@@ -2754,22 +2754,27 @@
       <c r="C15" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="G16" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="C17" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -2779,8 +2784,11 @@
       <c r="C18" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>178</v>
@@ -2788,8 +2796,9 @@
       <c r="C19" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>180</v>
       </c>
@@ -2799,8 +2808,11 @@
       <c r="C20" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>183</v>
@@ -2808,8 +2820,9 @@
       <c r="C21" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>185</v>
       </c>
@@ -2819,8 +2832,11 @@
       <c r="C22" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="G22" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>188</v>
@@ -2828,9 +2844,10 @@
       <c r="C23" t="s">
         <v>177</v>
       </c>
+      <c r="G23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -2848,6 +2865,11 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
